--- a/Results/ScenarioI-DifferentModels/PrototII/ProtoII.xlsx
+++ b/Results/ScenarioI-DifferentModels/PrototII/ProtoII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Run (mpiexec -hosts 3 PC2215 PC2408 PC2339)</t>
   </si>
@@ -28,15 +28,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Run-time </t>
-  </si>
-  <si>
-    <t>Master node RT</t>
-  </si>
-  <si>
-    <t>Slave 1 RT</t>
-  </si>
-  <si>
-    <t>Slave 2 RT</t>
   </si>
   <si>
     <t>Average</t>
@@ -384,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,15 +403,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -435,15 +420,8 @@
       <c r="D2">
         <v>94.626900000000006</v>
       </c>
-      <c r="E2" s="1">
-        <v>94.626900000000006</v>
-      </c>
-      <c r="F2" s="1">
-        <v>86.199100000000001</v>
-      </c>
-      <c r="G2">
-        <v>73.16</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -458,15 +436,6 @@
       <c r="D3">
         <v>94.156499999999994</v>
       </c>
-      <c r="E3">
-        <v>94.156499999999994</v>
-      </c>
-      <c r="F3">
-        <v>86.602900000000005</v>
-      </c>
-      <c r="G3">
-        <v>73.190700000000007</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -481,15 +450,6 @@
       <c r="D4">
         <v>94.669600000000003</v>
       </c>
-      <c r="E4">
-        <v>94.669600000000003</v>
-      </c>
-      <c r="F4">
-        <v>86.815600000000003</v>
-      </c>
-      <c r="G4">
-        <v>72.9435</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -503,15 +463,6 @@
       </c>
       <c r="D5">
         <v>94.732299999999995</v>
-      </c>
-      <c r="E5">
-        <v>94.732299999999995</v>
-      </c>
-      <c r="F5">
-        <v>87.0886</v>
-      </c>
-      <c r="G5">
-        <v>73.131100000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,26 +478,16 @@
       <c r="D6">
         <v>94.422300000000007</v>
       </c>
-      <c r="E6">
-        <v>94.422300000000007</v>
-      </c>
-      <c r="F6">
-        <v>86.700500000000005</v>
-      </c>
-      <c r="G6">
-        <v>73.381</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <f xml:space="preserve"> AVERAGE(D2:D6)</f>
         <v>94.521519999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,15 +500,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -580,16 +515,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>286.11399999999998</v>
-      </c>
-      <c r="E11">
-        <v>286.11399999999998</v>
-      </c>
-      <c r="F11">
-        <v>272.149</v>
-      </c>
-      <c r="G11">
-        <v>166.53299999999999</v>
+        <v>180.43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,16 +529,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>260.67500000000001</v>
-      </c>
-      <c r="E12">
-        <v>260.67500000000001</v>
-      </c>
-      <c r="F12">
-        <v>161.88499999999999</v>
-      </c>
-      <c r="G12">
-        <v>247.005</v>
+        <v>181.631</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,16 +543,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>269.64400000000001</v>
-      </c>
-      <c r="E13">
-        <v>269.64400000000001</v>
-      </c>
-      <c r="F13">
-        <v>165.45500000000001</v>
-      </c>
-      <c r="G13">
-        <v>255.89</v>
+        <v>182.78800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,16 +557,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>272.16300000000001</v>
-      </c>
-      <c r="E14">
-        <v>272.16300000000001</v>
-      </c>
-      <c r="F14">
-        <v>166.696</v>
-      </c>
-      <c r="G14">
-        <v>258.42200000000003</v>
+        <v>183.23099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,28 +571,18 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>266.02199999999999</v>
-      </c>
-      <c r="E15">
-        <v>266.02199999999999</v>
-      </c>
-      <c r="F15">
-        <v>166.1</v>
-      </c>
-      <c r="G15">
-        <v>252.03700000000001</v>
+        <v>181.709</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <f>AVERAGE(D11:D15)</f>
-        <v>270.92359999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>181.95779999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,15 +595,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -727,16 +610,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>481.86200000000002</v>
-      </c>
-      <c r="E20">
-        <v>481.86200000000002</v>
-      </c>
-      <c r="F20">
-        <v>336.714</v>
-      </c>
-      <c r="G20">
-        <v>460.74700000000001</v>
+        <v>355.03500000000003</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,16 +624,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>477.22500000000002</v>
-      </c>
-      <c r="E21">
-        <v>477.22500000000002</v>
-      </c>
-      <c r="F21">
-        <v>326.54199999999997</v>
-      </c>
-      <c r="G21">
-        <v>457.20100000000002</v>
+        <v>360.02100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,16 +638,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>468.79199999999997</v>
-      </c>
-      <c r="E22">
-        <v>468.79199999999997</v>
-      </c>
-      <c r="F22">
-        <v>324.714</v>
-      </c>
-      <c r="G22">
-        <v>448.70699999999999</v>
+        <v>352.67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,16 +652,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>463.476</v>
-      </c>
-      <c r="E23">
-        <v>463.476</v>
-      </c>
-      <c r="F23">
-        <v>325.86799999999999</v>
-      </c>
-      <c r="G23">
-        <v>443.572</v>
+        <v>358.233</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,28 +666,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>463.25700000000001</v>
-      </c>
-      <c r="E24">
-        <v>463.25700000000001</v>
-      </c>
-      <c r="F24">
-        <v>324.214</v>
-      </c>
-      <c r="G24">
-        <v>443.36799999999999</v>
+        <v>362.12099999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <f>AVERAGE(D20:D24)</f>
-        <v>470.92240000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>357.61599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,15 +690,9 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -874,16 +705,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>779.3</v>
-      </c>
-      <c r="E29">
-        <v>779.3</v>
-      </c>
-      <c r="F29">
-        <v>466.71600000000001</v>
-      </c>
-      <c r="G29">
-        <v>752.05600000000004</v>
+        <v>496.27600000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,16 +719,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>778.40499999999997</v>
-      </c>
-      <c r="E30">
-        <v>778.40499999999997</v>
-      </c>
-      <c r="F30">
-        <v>467.88</v>
-      </c>
-      <c r="G30">
-        <v>752.16600000000005</v>
+        <v>486.10399999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,16 +733,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>778.05100000000004</v>
-      </c>
-      <c r="E31">
-        <v>778.05100000000004</v>
-      </c>
-      <c r="F31">
-        <v>466.39699999999999</v>
-      </c>
-      <c r="G31">
-        <v>750.23</v>
+        <v>498.12099999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,16 +747,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>778.01900000000001</v>
-      </c>
-      <c r="E32">
-        <v>778.01900000000001</v>
-      </c>
-      <c r="F32">
-        <v>468.49400000000003</v>
-      </c>
-      <c r="G32">
-        <v>752.27200000000005</v>
+        <v>493.53399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,28 +761,18 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>778.38800000000003</v>
-      </c>
-      <c r="E33">
-        <v>778.38800000000003</v>
-      </c>
-      <c r="F33">
-        <v>466.19400000000002</v>
-      </c>
-      <c r="G33">
-        <v>750.79399999999998</v>
+        <v>489.23099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <f>AVERAGE(D29:D33)</f>
-        <v>778.43259999999987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>492.65319999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,15 +785,9 @@
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1021,16 +800,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1730.63</v>
-      </c>
-      <c r="E38">
-        <v>1730.63</v>
-      </c>
-      <c r="F38">
-        <v>716.34799999999996</v>
-      </c>
-      <c r="G38">
-        <v>1675.86</v>
+        <v>792.70399999999995</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,16 +814,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2427.69</v>
-      </c>
-      <c r="E39">
-        <v>2427.69</v>
-      </c>
-      <c r="F39">
-        <v>914.63</v>
-      </c>
-      <c r="G39">
-        <v>2374.75</v>
+        <v>789.41</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,16 +828,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1817.55</v>
-      </c>
-      <c r="E40">
-        <v>1817.55</v>
-      </c>
-      <c r="F40">
-        <v>713.32600000000002</v>
-      </c>
-      <c r="G40">
-        <v>1765.75</v>
+        <v>798.65</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,16 +842,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>1873.47</v>
-      </c>
-      <c r="E41">
-        <v>1873.47</v>
-      </c>
-      <c r="F41">
-        <v>710.55</v>
-      </c>
-      <c r="G41">
-        <v>1821.38</v>
+        <v>786.79700000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,25 +856,15 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1726.86</v>
-      </c>
-      <c r="E42">
-        <v>1726.86</v>
-      </c>
-      <c r="F42">
-        <v>714.04300000000001</v>
-      </c>
-      <c r="G42">
-        <v>1674.31</v>
+        <v>795.88199999999995</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <f>AVERAGE(D38:D42)</f>
-        <v>1915.2400000000002</v>
+        <v>792.68860000000006</v>
       </c>
     </row>
   </sheetData>
